--- a/biology/Médecine/Chlorure_de_sodium_(maladie_professionnelle)/Chlorure_de_sodium_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Chlorure_de_sodium_(maladie_professionnelle)/Chlorure_de_sodium_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une affection provoquée par le chlorure de sodium dans les mines de sel soit reconnue comme maladie professionnelle.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
